--- a/biology/Histoire de la zoologie et de la botanique/Paul_Irwin_Forster/Paul_Irwin_Forster.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Irwin_Forster/Paul_Irwin_Forster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Irwin Forster, né en 1961, est un botaniste australien.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Paul Irwin Forster obtient son doctorat en 2004 à l’Université du Queensland, en soutenant sa thèse portant sur la flore australienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paul Irwin Forster obtient son doctorat en 2004 à l’Université du Queensland, en soutenant sa thèse portant sur la flore australienne.
 Il participe ensuite au développement du jardin des plantes du Queensland, dépendant de l’agence de protection environnementale, au sein du Jardin botanique de Brisbane.
 </t>
         </is>
